--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -174,61 +174,61 @@
     <t>id</t>
   </si>
   <si>
+    <t>scriptName</t>
+  </si>
+  <si>
+    <t>buffID_1</t>
+  </si>
+  <si>
+    <t>buffID_2</t>
+  </si>
+  <si>
+    <t>buffID_3</t>
+  </si>
+  <si>
+    <t>buffID_4</t>
+  </si>
+  <si>
+    <t>buffID_5</t>
+  </si>
+  <si>
+    <t>career</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>needEnergy</t>
+  </si>
+  <si>
+    <t>preTime</t>
+  </si>
+  <si>
+    <t>effectTime</t>
+  </si>
+  <si>
+    <t>afterTime</t>
+  </si>
+  <si>
+    <t>bulletFlyTime</t>
+  </si>
+  <si>
+    <t>bulletStayTime</t>
+  </si>
+  <si>
+    <t>bulletParticleFile</t>
+  </si>
+  <si>
+    <t>goalCamp</t>
+  </si>
+  <si>
+    <t>goalType</t>
+  </si>
+  <si>
+    <t>animName</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>scriptName</t>
-  </si>
-  <si>
-    <t>buffID_1</t>
-  </si>
-  <si>
-    <t>buffID_2</t>
-  </si>
-  <si>
-    <t>buffID_3</t>
-  </si>
-  <si>
-    <t>buffID_4</t>
-  </si>
-  <si>
-    <t>buffID_5</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>needEnergy</t>
-  </si>
-  <si>
-    <t>preTime</t>
-  </si>
-  <si>
-    <t>effectTime</t>
-  </si>
-  <si>
-    <t>afterTime</t>
-  </si>
-  <si>
-    <t>bulletFlyTime</t>
-  </si>
-  <si>
-    <t>bulletStayTime</t>
-  </si>
-  <si>
-    <t>bulletParticleFile</t>
-  </si>
-  <si>
-    <t>goalCamp</t>
-  </si>
-  <si>
-    <t>goalType</t>
-  </si>
-  <si>
-    <t>animName</t>
   </si>
   <si>
     <t>icon</t>
@@ -323,9 +323,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -354,21 +354,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,6 +382,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -390,8 +420,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -412,9 +459,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,60 +489,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -491,14 +498,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,19 +555,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -579,151 +717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,15 +734,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,6 +748,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,39 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -834,151 +825,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,7 +1376,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1480,65 +1480,63 @@
       <c r="A3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="V3" s="6" t="s">
         <v>44</v>
@@ -1551,9 +1549,7 @@
       <c r="A4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>47</v>
-      </c>
+      <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
